--- a/2022/Symphony/SEPTEMBER/26.09.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/SEPTEMBER/26.09.2022/MC Bank Statement Sep-2022.xlsx
@@ -3200,6 +3200,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3227,22 +3239,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6216,67 +6216,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
+      <c r="N1" s="347"/>
+      <c r="O1" s="347"/>
+      <c r="P1" s="347"/>
+      <c r="Q1" s="347"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="348" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="344"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
+      <c r="O2" s="348"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="349" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="347"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="350"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="350"/>
+      <c r="Q3" s="351"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6285,52 +6285,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="350" t="s">
+      <c r="B4" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="352" t="s">
+      <c r="C4" s="343" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="352" t="s">
+      <c r="D4" s="343" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="352" t="s">
+      <c r="E4" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="352" t="s">
+      <c r="F4" s="343" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="352" t="s">
+      <c r="G4" s="343" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="352" t="s">
+      <c r="H4" s="343" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="352" t="s">
+      <c r="I4" s="343" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="352" t="s">
+      <c r="J4" s="343" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="352" t="s">
+      <c r="K4" s="343" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="352" t="s">
+      <c r="L4" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="352" t="s">
+      <c r="M4" s="343" t="s">
         <v>221</v>
       </c>
-      <c r="N4" s="352" t="s">
+      <c r="N4" s="343" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="356" t="s">
+      <c r="O4" s="345" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="354" t="s">
+      <c r="P4" s="356" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6343,22 +6343,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="351"/>
-      <c r="C5" s="353"/>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="353"/>
-      <c r="K5" s="353"/>
-      <c r="L5" s="353"/>
-      <c r="M5" s="353"/>
-      <c r="N5" s="353"/>
-      <c r="O5" s="357"/>
-      <c r="P5" s="355"/>
+      <c r="A5" s="353"/>
+      <c r="B5" s="355"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="346"/>
+      <c r="P5" s="357"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -9507,6 +9507,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9523,9 +9526,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9539,7 +9539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -12300,14 +12300,14 @@
         <v>466510</v>
       </c>
       <c r="C26" s="52">
-        <v>700740</v>
+        <v>692790</v>
       </c>
       <c r="D26" s="49">
         <v>2750</v>
       </c>
       <c r="E26" s="49">
         <f t="shared" si="0"/>
-        <v>703490</v>
+        <v>695540</v>
       </c>
       <c r="F26" s="230"/>
       <c r="G26" s="237"/>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>11537370</v>
+        <v>11529420</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -13032,11 +13032,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>11600660</v>
+        <v>11592710</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>656040</v>
+        <v>663990</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -15148,7 +15148,7 @@
         <v>1725821212</v>
       </c>
       <c r="D52" s="298">
-        <v>65900</v>
+        <v>73850</v>
       </c>
       <c r="E52" s="301" t="s">
         <v>240</v>
@@ -22677,7 +22677,7 @@
       <c r="C119" s="370"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>2798010</v>
+        <v>2805960</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22884,7 +22884,7 @@
       <c r="C121" s="359"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>2798010</v>
+        <v>2805960</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -34117,8 +34117,8 @@
   </sheetPr>
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34296,7 +34296,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="240">
-        <v>322740.42000000086</v>
+        <v>314790.42000000086</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="256"/>
@@ -34358,7 +34358,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="240">
-        <v>2798010</v>
+        <v>2805960</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="111"/>
